--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\PROJETOS\APP\Códigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB0B826-1233-4904-9B7A-7A84D1E0DE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235826A5-71D0-414A-BFC3-3C71841CF050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="182">
   <si>
     <t>Complemento</t>
   </si>
@@ -446,18 +446,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>FITA CETIM - AMARELO</t>
-  </si>
-  <si>
-    <t>S150203</t>
-  </si>
-  <si>
-    <t>FITA CETIM - AZUL</t>
-  </si>
-  <si>
-    <t>FITA CETIM - ROSA</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -551,10 +539,52 @@
     <t>S020009</t>
   </si>
   <si>
-    <t>VASSOURA DE PELO SINTETICO</t>
-  </si>
-  <si>
     <t>S110036</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
+  </si>
+  <si>
+    <t>S050008</t>
+  </si>
+  <si>
+    <t>UM.</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>PC C/8</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC C/100</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PELO SINTETICO - PLASTICO</t>
+  </si>
+  <si>
+    <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - UNICA</t>
+  </si>
+  <si>
+    <t>S020048</t>
+  </si>
+  <si>
+    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S020008</t>
   </si>
 </sst>
 </file>
@@ -637,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -651,12 +681,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -988,1050 +1048,1356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D90" sqref="D1:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>809</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>1046</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>1045</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D18" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D19" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D20" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D21" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D22" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D23" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D24" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D25" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D28" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D31" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D32" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D33" s="4">
         <v>899</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D34" s="4">
         <v>896</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D35" s="4">
         <v>900</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D36" s="4">
         <v>898</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D38" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B39" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D39" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B40" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>910</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>745</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="4">
+      <c r="D52" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="4">
+      <c r="D53" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="4">
+      <c r="D54" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="4">
+      <c r="D57" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="4">
+      <c r="D58" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="4">
+      <c r="D60" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="4">
+      <c r="D62" s="4">
         <v>820</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="4">
+      <c r="D63" s="4">
         <v>819</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="4">
+      <c r="D65" s="4">
         <v>553</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="4">
+      <c r="D66" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="4">
+      <c r="D67" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C68" s="4">
+      <c r="D68" s="4">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="4">
+      <c r="D70" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="4">
+      <c r="D71" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="4">
+      <c r="D72" s="4">
         <v>994</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="4">
+      <c r="D73" s="4">
         <v>695</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="4">
+      <c r="D75" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="4">
+      <c r="D77" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="4">
+      <c r="D78" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="4">
+      <c r="D79" s="4">
         <v>107</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="4">
+        <v>173</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" s="4">
         <v>747</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="4">
+        <v>173</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" s="4">
         <v>449</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C83" s="4">
+      <c r="D83" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="4">
+      <c r="D84" s="4">
         <v>799</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C85" s="4">
+      <c r="D85" s="4">
         <v>1127</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C86" s="4">
+      <c r="D86" s="4">
         <v>569</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="4">
+      <c r="D87" s="4">
         <v>762</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C88" s="4">
+      <c r="D88" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C91" s="4">
+      <c r="D92" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B93" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C92" s="4">
+      <c r="D93" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C61" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C61">
+  <autoFilter ref="A1:D93" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D61">
       <sortCondition ref="A1:A61"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$D1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C92">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+  <conditionalFormatting sqref="A2:D16 A18:D36 A38:D89 A91:D93">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:D17">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:D37">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A37))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90:D90">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A90))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="C4:C92" numberStoredAsText="1"/>
+    <ignoredError sqref="D91:D93 D42:D89 D18:D36 D4:D16 D38:D40 D1:D3 D41 D17 D37 D90" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235826A5-71D0-414A-BFC3-3C71841CF050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B20D18-3B1F-48FD-8CC0-314A2927054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="188">
   <si>
     <t>Complemento</t>
   </si>
@@ -585,6 +585,24 @@
   </si>
   <si>
     <t>S020008</t>
+  </si>
+  <si>
+    <t>MOP PO REFIL - UNICA</t>
+  </si>
+  <si>
+    <t>S010076</t>
+  </si>
+  <si>
+    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S010034</t>
+  </si>
+  <si>
+    <t>KIT MOP UMIDO - UNICA</t>
+  </si>
+  <si>
+    <t>S010086</t>
   </si>
 </sst>
 </file>
@@ -689,25 +707,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -752,9 +752,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -792,7 +792,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -898,7 +898,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1040,7 +1040,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1048,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D90" sqref="D1:D90"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1694,41 +1694,41 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D46" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>170</v>
@@ -1745,54 +1745,54 @@
         <v>65</v>
       </c>
       <c r="D49" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D51" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D52" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>170</v>
@@ -1801,26 +1801,26 @@
         <v>72</v>
       </c>
       <c r="D53" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D54" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>170</v>
@@ -1828,13 +1828,13 @@
       <c r="C55" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>138</v>
+      <c r="D55" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>170</v>
@@ -1843,60 +1843,60 @@
         <v>75</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D58" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>143</v>
+        <v>183</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1904,500 +1904,532 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>118</v>
+        <v>79</v>
+      </c>
+      <c r="D61" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="4">
-        <v>820</v>
+        <v>142</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D63" s="4">
-        <v>819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D65" s="4">
-        <v>553</v>
+        <v>820</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D66" s="4">
-        <v>72</v>
+        <v>819</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D67" s="4">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D68" s="4">
-        <v>87</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>150</v>
+        <v>88</v>
+      </c>
+      <c r="D69" s="4">
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D70" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D71" s="4">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" s="4">
-        <v>994</v>
+        <v>90</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D73" s="4">
-        <v>695</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>118</v>
+        <v>92</v>
+      </c>
+      <c r="D74" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D75" s="4">
-        <v>1</v>
+        <v>994</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>118</v>
+        <v>94</v>
+      </c>
+      <c r="D76" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D78" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" s="4">
-        <v>107</v>
+        <v>156</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="D80" s="4">
-        <v>747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="D81" s="4">
-        <v>449</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D82" s="4">
-        <v>170</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="D83" s="4">
-        <v>163</v>
+        <v>747</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="D84" s="4">
-        <v>799</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D85" s="4">
-        <v>1127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D86" s="4">
-        <v>569</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D87" s="4">
-        <v>762</v>
+        <v>799</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D88" s="4">
-        <v>211</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
+      </c>
+      <c r="D89" s="4">
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
+      </c>
+      <c r="D90" s="4">
+        <v>762</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="D91" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D92" s="4">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C93" s="4" t="s">
+      <c r="B96" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D96" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D93" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D61">
-      <sortCondition ref="A1:A61"/>
+  <autoFilter ref="A1:D96" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D64">
+      <sortCondition ref="A1:A64"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D16 A18:D36 A38:D89 A91:D93">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A2:D44 A46:D96">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:D17">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A17))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:D37">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A37))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90:D90">
+  <conditionalFormatting sqref="A45:D45">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A90))&gt;0</formula>
+      <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D91:D93 D42:D89 D18:D36 D4:D16 D38:D40 D1:D3 D41 D17 D37 D90" numberStoredAsText="1"/>
+    <ignoredError sqref="D61:D96 D46:D58 D1:D44" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B20D18-3B1F-48FD-8CC0-314A2927054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678404AD-4386-4A88-AB00-6A262D4D6462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="190">
   <si>
     <t>Complemento</t>
   </si>
@@ -603,6 +603,12 @@
   </si>
   <si>
     <t>S010086</t>
+  </si>
+  <si>
+    <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>S010002</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,63 +1112,63 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>117</v>
+        <v>189</v>
+      </c>
+      <c r="D4" s="4">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
-        <v>809</v>
+        <v>120</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4">
-        <v>1046</v>
+        <v>809</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>170</v>
@@ -1171,40 +1177,40 @@
         <v>9</v>
       </c>
       <c r="D8" s="4">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4">
-        <v>103</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>170</v>
@@ -1213,68 +1219,68 @@
         <v>13</v>
       </c>
       <c r="D11" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>118</v>
+        <v>18</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
+        <v>125</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>170</v>
@@ -1283,12 +1289,12 @@
         <v>20</v>
       </c>
       <c r="D16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>170</v>
@@ -1297,32 +1303,32 @@
         <v>20</v>
       </c>
       <c r="D17" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1330,83 +1336,83 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4">
-        <v>109</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="4">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1414,41 +1420,41 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>118</v>
+        <v>33</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1456,55 +1462,55 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>134</v>
+        <v>37</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1512,21 +1518,21 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="4">
-        <v>899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>170</v>
@@ -1535,12 +1541,12 @@
         <v>45</v>
       </c>
       <c r="D34" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>170</v>
@@ -1549,12 +1555,12 @@
         <v>45</v>
       </c>
       <c r="D35" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>170</v>
@@ -1563,40 +1569,40 @@
         <v>45</v>
       </c>
       <c r="D36" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>118</v>
+        <v>45</v>
+      </c>
+      <c r="D37" s="4">
+        <v>898</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="4">
-        <v>166</v>
+        <v>179</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>170</v>
@@ -1605,46 +1611,46 @@
         <v>50</v>
       </c>
       <c r="D39" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>118</v>
+        <v>50</v>
+      </c>
+      <c r="D40" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1652,27 +1658,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" s="4">
         <v>80</v>
@@ -1680,27 +1686,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -1708,41 +1714,41 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D47" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D49" s="4">
         <v>103</v>
@@ -1750,7 +1756,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>170</v>
@@ -1759,54 +1765,54 @@
         <v>65</v>
       </c>
       <c r="D50" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D52" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D53" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>170</v>
@@ -1815,26 +1821,26 @@
         <v>72</v>
       </c>
       <c r="D54" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D55" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>170</v>
@@ -1842,13 +1848,13 @@
       <c r="C56" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>138</v>
+      <c r="D56" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>170</v>
@@ -1857,32 +1863,32 @@
         <v>75</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1890,13 +1896,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1904,77 +1910,77 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="D61" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>143</v>
+        <v>79</v>
+      </c>
+      <c r="D62" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>118</v>
+        <v>81</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="4">
-        <v>820</v>
+        <v>145</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>173</v>
@@ -1983,68 +1989,68 @@
         <v>83</v>
       </c>
       <c r="D66" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>147</v>
+        <v>83</v>
+      </c>
+      <c r="D67" s="4">
+        <v>819</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="4">
-        <v>553</v>
+        <v>85</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D69" s="4">
-        <v>72</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D70" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>170</v>
@@ -2053,12 +2059,12 @@
         <v>90</v>
       </c>
       <c r="D71" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>170</v>
@@ -2066,27 +2072,27 @@
       <c r="C72" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>150</v>
+      <c r="D72" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D73" s="4">
-        <v>55</v>
+        <v>90</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>170</v>
@@ -2095,26 +2101,26 @@
         <v>92</v>
       </c>
       <c r="D74" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D75" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>170</v>
@@ -2123,152 +2129,152 @@
         <v>94</v>
       </c>
       <c r="D76" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>118</v>
+        <v>94</v>
+      </c>
+      <c r="D77" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>118</v>
+        <v>97</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D81" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D82" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="D83" s="4">
-        <v>747</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D84" s="4">
-        <v>449</v>
+        <v>747</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="D85" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D86" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>170</v>
@@ -2277,26 +2283,26 @@
         <v>105</v>
       </c>
       <c r="D87" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D88" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>175</v>
@@ -2305,12 +2311,12 @@
         <v>108</v>
       </c>
       <c r="D89" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>175</v>
@@ -2319,46 +2325,46 @@
         <v>108</v>
       </c>
       <c r="D90" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D91" s="4">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="D92" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>118</v>
@@ -2366,70 +2372,84 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D95" s="4">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D96" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D64">
-      <sortCondition ref="A1:A64"/>
+  <autoFilter ref="A1:D97" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D65">
+      <sortCondition ref="A1:A65"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D44 A46:D96">
+  <conditionalFormatting sqref="A2:D3 A5:D97">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:D45">
+  <conditionalFormatting sqref="A4:D4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A45))&gt;0</formula>
+      <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D61:D96 D46:D58 D1:D44" numberStoredAsText="1"/>
+    <ignoredError sqref="D62:D97 D47:D59 D5:D45 D1:D3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678404AD-4386-4A88-AB00-6A262D4D6462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DEADEE-962D-4E40-ACFF-506099D10C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="192">
   <si>
     <t>Complemento</t>
   </si>
@@ -609,6 +609,12 @@
   </si>
   <si>
     <t>S010002</t>
+  </si>
+  <si>
+    <t>TAPETE - UNICA</t>
+  </si>
+  <si>
+    <t>S110059</t>
   </si>
 </sst>
 </file>
@@ -1054,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,41 +2350,41 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="D92" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="D93" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>118</v>
@@ -2386,70 +2392,84 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D96" s="4">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D97" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+  <autoFilter ref="A1:D98" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D65">
       <sortCondition ref="A1:A65"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D3 A5:D97">
+  <conditionalFormatting sqref="A2:D91 A93:D98">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4">
+  <conditionalFormatting sqref="A92:D92">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A4))&gt;0</formula>
+      <formula>LEN(TRIM(A92))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D62:D97 D47:D59 D5:D45 D1:D3" numberStoredAsText="1"/>
+    <ignoredError sqref="D93:D98 D47:D59 D5:D45 D1:D3 D62:D91" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DEADEE-962D-4E40-ACFF-506099D10C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87628D8E-16E2-4ED2-86D3-E00DEF761D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="191">
   <si>
     <t>Complemento</t>
   </si>
@@ -296,9 +296,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -479,12 +476,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
     <t>PAPEL TOALHA INTERFOLHADO - 1000 FLS</t>
   </si>
   <si>
@@ -615,6 +606,12 @@
   </si>
   <si>
     <t>S110059</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -1062,9 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:XFD92"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1079,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1090,13 +1085,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1104,58 +1099,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>189</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1163,7 +1158,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -1174,10 +1169,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1188,10 +1183,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1205,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1219,7 +1214,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1233,7 +1228,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1247,7 +1242,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1261,7 +1256,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1272,16 +1267,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1289,7 +1284,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1303,7 +1298,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1314,10 +1309,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1331,7 +1326,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1345,7 +1340,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1359,7 +1354,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
@@ -1370,10 +1365,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
@@ -1384,10 +1379,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>29</v>
@@ -1401,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
@@ -1412,13 +1407,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1429,7 +1424,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>33</v>
@@ -1440,16 +1435,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1457,7 +1452,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>35</v>
@@ -1471,7 +1466,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>37</v>
@@ -1482,16 +1477,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,13 +1494,13 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1513,7 +1508,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>41</v>
@@ -1527,7 +1522,7 @@
         <v>42</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>43</v>
@@ -1541,7 +1536,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>45</v>
@@ -1555,7 +1550,7 @@
         <v>46</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>45</v>
@@ -1569,7 +1564,7 @@
         <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>45</v>
@@ -1583,7 +1578,7 @@
         <v>48</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>45</v>
@@ -1594,83 +1589,83 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="D39" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>118</v>
+        <v>50</v>
+      </c>
+      <c r="D41" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1678,27 +1673,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D45" s="4">
         <v>80</v>
@@ -1706,27 +1701,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1734,41 +1729,41 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D48" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D49" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" s="4">
         <v>103</v>
@@ -1776,139 +1771,139 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D51" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D53" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D54" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D55" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D56" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>138</v>
+      <c r="D57" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1916,13 +1911,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1930,111 +1925,111 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="D62" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>143</v>
+        <v>79</v>
+      </c>
+      <c r="D63" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>118</v>
+        <v>81</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="4">
-        <v>820</v>
+        <v>144</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D67" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>147</v>
+        <v>83</v>
+      </c>
+      <c r="D68" s="4">
+        <v>819</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D69" s="4">
         <v>553</v>
@@ -2042,13 +2037,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D70" s="4">
         <v>72</v>
@@ -2056,13 +2051,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D71" s="4">
         <v>86</v>
@@ -2070,13 +2065,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D72" s="4">
         <v>87</v>
@@ -2084,27 +2079,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D74" s="4">
         <v>55</v>
@@ -2112,13 +2107,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D75" s="4">
         <v>54</v>
@@ -2126,13 +2121,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D76" s="4">
         <v>994</v>
@@ -2140,13 +2135,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D77" s="4">
         <v>695</v>
@@ -2154,27 +2149,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2182,27 +2177,27 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2210,13 +2205,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D82" s="4">
         <v>53</v>
@@ -2224,13 +2219,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D83" s="4">
         <v>107</v>
@@ -2238,13 +2233,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D84" s="4">
         <v>747</v>
@@ -2252,13 +2247,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D85" s="4">
         <v>449</v>
@@ -2266,13 +2261,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D86" s="4">
         <v>170</v>
@@ -2280,13 +2275,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D87" s="4">
         <v>163</v>
@@ -2294,13 +2289,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D88" s="4">
         <v>799</v>
@@ -2308,13 +2303,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D89" s="4">
         <v>1127</v>
@@ -2322,13 +2317,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D90" s="4">
         <v>569</v>
@@ -2336,13 +2331,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D91" s="4">
         <v>762</v>
@@ -2350,13 +2345,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2364,13 +2359,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D93" s="4">
         <v>211</v>
@@ -2378,55 +2373,55 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2434,13 +2429,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2448,28 +2443,28 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D98" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D65">
-      <sortCondition ref="A1:A65"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D98">
+      <sortCondition ref="A1:A98"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D91 A93:D98">
+  <conditionalFormatting sqref="A2:D67 A69:D98">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92:D92">
+  <conditionalFormatting sqref="A68:D68">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A92))&gt;0</formula>
+      <formula>LEN(TRIM(A68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D93:D98 D47:D59 D5:D45 D1:D3 D62:D91" numberStoredAsText="1"/>
+    <ignoredError sqref="D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87628D8E-16E2-4ED2-86D3-E00DEF761D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC5B6B-7D68-4FB4-94F4-FA26CFFD12F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>S110018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -612,6 +609,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1074,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1085,13 +1087,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1102,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1116,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1127,30 +1129,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -1169,10 +1171,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1183,10 +1185,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1200,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1214,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1228,7 +1230,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1242,7 +1244,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1256,7 +1258,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1267,16 +1269,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1284,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1298,7 +1300,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1309,10 +1311,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1326,7 +1328,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1340,7 +1342,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1354,7 +1356,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
@@ -1365,10 +1367,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
@@ -1379,10 +1381,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>29</v>
@@ -1396,7 +1398,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
@@ -1407,13 +1409,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1424,7 +1426,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>33</v>
@@ -1435,16 +1437,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,7 +1454,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>35</v>
@@ -1466,7 +1468,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>37</v>
@@ -1477,16 +1479,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,38 +1496,38 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1533,13 +1535,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D34" s="4">
         <v>899</v>
@@ -1547,13 +1549,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="4">
         <v>896</v>
@@ -1561,13 +1563,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="4">
         <v>900</v>
@@ -1575,13 +1577,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="4">
         <v>898</v>
@@ -1589,27 +1591,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1617,13 +1619,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D40" s="4">
         <v>166</v>
@@ -1631,13 +1633,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4">
         <v>167</v>
@@ -1645,27 +1647,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1673,13 +1675,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1687,13 +1689,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D45" s="4">
         <v>80</v>
@@ -1701,13 +1703,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1715,13 +1717,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1729,13 +1731,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1743,13 +1745,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D49" s="4">
         <v>40</v>
@@ -1757,13 +1759,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D50" s="4">
         <v>103</v>
@@ -1771,13 +1773,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D51" s="4">
         <v>103</v>
@@ -1785,13 +1787,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="4">
         <v>910</v>
@@ -1799,13 +1801,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1813,13 +1815,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D54" s="4">
         <v>745</v>
@@ -1827,13 +1829,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D55" s="4">
         <v>33</v>
@@ -1841,13 +1843,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="4">
         <v>32</v>
@@ -1855,13 +1857,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -1869,41 +1871,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1911,13 +1913,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1925,13 +1927,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1939,13 +1941,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D63" s="4">
         <v>211</v>
@@ -1953,27 +1955,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -1981,27 +1983,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D67" s="4">
         <v>820</v>
@@ -2009,13 +2011,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" s="4">
         <v>819</v>
@@ -2023,13 +2025,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D69" s="4">
         <v>553</v>
@@ -2037,13 +2039,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D70" s="4">
         <v>72</v>
@@ -2051,13 +2053,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D71" s="4">
         <v>86</v>
@@ -2065,13 +2067,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D72" s="4">
         <v>87</v>
@@ -2079,27 +2081,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D74" s="4">
         <v>55</v>
@@ -2107,13 +2109,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="4">
         <v>54</v>
@@ -2121,13 +2123,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D76" s="4">
         <v>994</v>
@@ -2135,13 +2137,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D77" s="4">
         <v>695</v>
@@ -2149,27 +2151,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2177,27 +2179,27 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D80" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2205,13 +2207,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D82" s="4">
         <v>53</v>
@@ -2219,13 +2221,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D83" s="4">
         <v>107</v>
@@ -2233,13 +2235,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D84" s="4">
         <v>747</v>
@@ -2247,13 +2249,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D85" s="4">
         <v>449</v>
@@ -2261,13 +2263,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D86" s="4">
         <v>170</v>
@@ -2275,13 +2277,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D87" s="4">
         <v>163</v>
@@ -2289,13 +2291,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D88" s="4">
         <v>799</v>
@@ -2303,13 +2305,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D89" s="4">
         <v>1127</v>
@@ -2317,13 +2319,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D90" s="4">
         <v>569</v>
@@ -2331,13 +2333,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D91" s="4">
         <v>762</v>
@@ -2345,13 +2347,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2359,13 +2361,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D93" s="4">
         <v>211</v>
@@ -2373,55 +2375,55 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="D94" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D95" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2429,13 +2431,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2448,18 +2450,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D67 A69:D98">
+  <conditionalFormatting sqref="A2:D31 A33:D98">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:D68">
+  <conditionalFormatting sqref="A32:D32">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A68))&gt;0</formula>
+      <formula>LEN(TRIM(A32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC5B6B-7D68-4FB4-94F4-FA26CFFD12F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BA1F10-709C-48D0-92D1-40A635A811F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -278,9 +278,6 @@
     <t>S040043</t>
   </si>
   <si>
-    <t>PANO DE CHAO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010037</t>
   </si>
   <si>
@@ -612,6 +609,9 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1104,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1129,30 +1129,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1160,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1202,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1216,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1230,7 +1230,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1244,7 +1244,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1258,7 +1258,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1269,16 +1269,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1300,7 +1300,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1311,10 +1311,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1328,7 +1328,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1342,7 +1342,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1356,7 +1356,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>29</v>
@@ -1398,7 +1398,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>33</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1454,7 +1454,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>35</v>
@@ -1468,7 +1468,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>37</v>
@@ -1479,16 +1479,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1496,21 +1496,21 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>40</v>
@@ -1524,7 +1524,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>42</v>
@@ -1538,7 +1538,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>44</v>
@@ -1552,7 +1552,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>44</v>
@@ -1566,7 +1566,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>44</v>
@@ -1580,7 +1580,7 @@
         <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>44</v>
@@ -1591,27 +1591,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1622,7 +1622,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>49</v>
@@ -1636,7 +1636,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
@@ -1647,27 +1647,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>52</v>
@@ -1692,7 +1692,7 @@
         <v>53</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>54</v>
@@ -1706,7 +1706,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>56</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>58</v>
@@ -1748,7 +1748,7 @@
         <v>59</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>60</v>
@@ -1762,7 +1762,7 @@
         <v>61</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>62</v>
@@ -1776,7 +1776,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>64</v>
@@ -1790,7 +1790,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>64</v>
@@ -1804,7 +1804,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>67</v>
@@ -1818,7 +1818,7 @@
         <v>68</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>69</v>
@@ -1832,7 +1832,7 @@
         <v>70</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>71</v>
@@ -1846,7 +1846,7 @@
         <v>72</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>71</v>
@@ -1860,7 +1860,7 @@
         <v>73</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>74</v>
@@ -1871,30 +1871,30 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>75</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>76</v>
@@ -1913,13 +1913,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1927,13 +1927,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>77</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>78</v>
@@ -1955,55 +1955,55 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D65" s="4">
-        <v>1</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D67" s="4">
         <v>820</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" s="4">
         <v>819</v>
@@ -2025,13 +2025,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D69" s="4">
         <v>553</v>
@@ -2039,13 +2039,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D70" s="4">
         <v>72</v>
@@ -2053,13 +2053,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D71" s="4">
         <v>86</v>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D72" s="4">
         <v>87</v>
@@ -2081,27 +2081,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D74" s="4">
         <v>55</v>
@@ -2109,13 +2109,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D75" s="4">
         <v>54</v>
@@ -2123,13 +2123,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="4">
         <v>994</v>
@@ -2137,13 +2137,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D77" s="4">
         <v>695</v>
@@ -2151,27 +2151,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2179,27 +2179,27 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="D80" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2207,13 +2207,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D82" s="4">
         <v>53</v>
@@ -2221,13 +2221,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D83" s="4">
         <v>107</v>
@@ -2235,13 +2235,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D84" s="4">
         <v>747</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="D85" s="4">
         <v>449</v>
@@ -2263,13 +2263,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D86" s="4">
         <v>170</v>
@@ -2277,13 +2277,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D87" s="4">
         <v>163</v>
@@ -2291,13 +2291,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D88" s="4">
         <v>799</v>
@@ -2305,13 +2305,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D89" s="4">
         <v>1127</v>
@@ -2319,13 +2319,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D90" s="4">
         <v>569</v>
@@ -2333,13 +2333,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D91" s="4">
         <v>762</v>
@@ -2347,13 +2347,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2361,13 +2361,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D93" s="4">
         <v>211</v>
@@ -2375,55 +2375,55 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D94" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="D95" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2431,13 +2431,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2450,18 +2450,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D31 A33:D98">
+  <conditionalFormatting sqref="A2:D64 A66:D98">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:D32">
+  <conditionalFormatting sqref="A65:D65">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A32))&gt;0</formula>
+      <formula>LEN(TRIM(A65))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BA1F10-709C-48D0-92D1-40A635A811F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DD78BB-837E-49EE-AC77-A180E9F136FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="188">
   <si>
     <t>Complemento</t>
   </si>
@@ -137,18 +137,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -230,15 +218,9 @@
     <t>S010026</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - 500ML - 500ML</t>
-  </si>
-  <si>
     <t>S010027</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - CIF</t>
-  </si>
-  <si>
     <t>LIVRO ATA - UNICA - UNICA</t>
   </si>
   <si>
@@ -416,18 +398,9 @@
     <t>DESINFETANTE LIQUIDO - 1000ML - 1000ML</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
@@ -612,6 +585,24 @@
   </si>
   <si>
     <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF</t>
   </si>
 </sst>
 </file>
@@ -1059,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:D65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1087,13 +1078,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1104,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1118,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1129,30 +1120,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1160,7 +1151,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -1171,10 +1162,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1185,10 +1176,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1202,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1216,7 +1207,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1230,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1244,7 +1235,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1258,7 +1249,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1269,16 +1260,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,7 +1277,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1300,7 +1291,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1311,10 +1302,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1328,7 +1319,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1342,7 +1333,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1356,7 +1347,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
@@ -1367,10 +1358,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
@@ -1381,10 +1372,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>29</v>
@@ -1398,7 +1389,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
@@ -1409,69 +1400,69 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1479,41 +1470,41 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D32" s="4">
         <v>1159</v>
@@ -1521,13 +1512,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1535,13 +1526,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D34" s="4">
         <v>899</v>
@@ -1549,13 +1540,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D35" s="4">
         <v>896</v>
@@ -1563,13 +1554,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D36" s="4">
         <v>900</v>
@@ -1577,13 +1568,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D37" s="4">
         <v>898</v>
@@ -1591,27 +1582,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1619,13 +1610,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D40" s="4">
         <v>166</v>
@@ -1633,13 +1624,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D41" s="4">
         <v>167</v>
@@ -1647,27 +1638,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1675,13 +1666,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1689,13 +1680,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D45" s="4">
         <v>80</v>
@@ -1703,13 +1694,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1717,13 +1708,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1731,13 +1722,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1745,13 +1736,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D49" s="4">
         <v>40</v>
@@ -1759,13 +1750,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D50" s="4">
         <v>103</v>
@@ -1773,13 +1764,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D51" s="4">
         <v>103</v>
@@ -1787,13 +1778,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D52" s="4">
         <v>910</v>
@@ -1801,13 +1792,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1815,13 +1806,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D54" s="4">
         <v>745</v>
@@ -1829,13 +1820,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D55" s="4">
         <v>33</v>
@@ -1843,13 +1834,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D56" s="4">
         <v>32</v>
@@ -1857,13 +1848,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -1871,41 +1862,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1913,13 +1904,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1927,13 +1918,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1941,13 +1932,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D63" s="4">
         <v>211</v>
@@ -1955,27 +1946,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D65" s="4">
         <v>1166</v>
@@ -1983,27 +1974,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D67" s="4">
         <v>820</v>
@@ -2011,13 +2002,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D68" s="4">
         <v>819</v>
@@ -2025,13 +2016,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D69" s="4">
         <v>553</v>
@@ -2039,13 +2030,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D70" s="4">
         <v>72</v>
@@ -2053,13 +2044,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D71" s="4">
         <v>86</v>
@@ -2067,13 +2058,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D72" s="4">
         <v>87</v>
@@ -2081,27 +2072,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D74" s="4">
         <v>55</v>
@@ -2109,13 +2100,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D75" s="4">
         <v>54</v>
@@ -2123,13 +2114,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D76" s="4">
         <v>994</v>
@@ -2137,13 +2128,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D77" s="4">
         <v>695</v>
@@ -2151,27 +2142,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2179,27 +2170,27 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2207,13 +2198,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D82" s="4">
         <v>53</v>
@@ -2221,13 +2212,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D83" s="4">
         <v>107</v>
@@ -2235,13 +2226,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D84" s="4">
         <v>747</v>
@@ -2249,13 +2240,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D85" s="4">
         <v>449</v>
@@ -2263,13 +2254,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D86" s="4">
         <v>170</v>
@@ -2277,13 +2268,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D87" s="4">
         <v>163</v>
@@ -2291,13 +2282,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D88" s="4">
         <v>799</v>
@@ -2305,13 +2296,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D89" s="4">
         <v>1127</v>
@@ -2319,13 +2310,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D90" s="4">
         <v>569</v>
@@ -2333,13 +2324,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D91" s="4">
         <v>762</v>
@@ -2347,13 +2338,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2361,13 +2352,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D93" s="4">
         <v>211</v>
@@ -2375,55 +2366,55 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2431,13 +2422,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2450,18 +2441,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D64 A66:D98">
+  <conditionalFormatting sqref="A2:D50 A53:D98 B51:D52">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:D65">
+  <conditionalFormatting sqref="A51:A52">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A65))&gt;0</formula>
+      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DD78BB-837E-49EE-AC77-A180E9F136FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0B926A-8DDC-43C9-B5DE-8D2957A252A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="188">
   <si>
     <t>Complemento</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -233,24 +227,15 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010030</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -437,9 +422,6 @@
     <t>591</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -603,6 +585,24 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,52 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1050,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1078,13 +1123,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1092,13 +1137,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="4">
         <v>105</v>
@@ -1106,13 +1151,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="4">
         <v>103</v>
@@ -1120,41 +1165,41 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D7" s="4">
         <v>809</v>
@@ -1162,13 +1207,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4">
         <v>1046</v>
@@ -1176,13 +1221,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
         <v>1045</v>
@@ -1190,13 +1235,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D10" s="4">
         <v>103</v>
@@ -1204,13 +1249,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4">
         <v>33</v>
@@ -1218,13 +1263,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D12" s="4">
         <v>31</v>
@@ -1232,13 +1277,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D13" s="4">
         <v>20</v>
@@ -1246,13 +1291,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1260,27 +1305,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -1288,13 +1333,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -1302,13 +1347,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4">
         <v>4</v>
@@ -1316,13 +1361,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1330,13 +1375,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1344,13 +1389,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D21" s="4">
         <v>52</v>
@@ -1358,13 +1403,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="4">
         <v>109</v>
@@ -1372,13 +1417,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="4">
         <v>105</v>
@@ -1386,13 +1431,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D24" s="4">
         <v>103</v>
@@ -1400,13 +1445,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D25" s="4">
         <v>1176</v>
@@ -1414,13 +1459,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D26" s="4">
         <v>1177</v>
@@ -1428,13 +1473,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D27" s="4">
         <v>1178</v>
@@ -1442,13 +1487,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D28" s="4">
         <v>1179</v>
@@ -1456,13 +1501,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1470,41 +1515,41 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="4">
         <v>1159</v>
@@ -1512,13 +1557,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1526,13 +1571,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D34" s="4">
         <v>899</v>
@@ -1540,13 +1585,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4">
         <v>896</v>
@@ -1554,13 +1599,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="4">
         <v>900</v>
@@ -1568,13 +1613,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="4">
         <v>898</v>
@@ -1582,27 +1627,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1610,13 +1655,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D40" s="4">
         <v>166</v>
@@ -1624,13 +1669,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="4">
         <v>167</v>
@@ -1638,27 +1683,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1666,27 +1711,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D45" s="4">
         <v>80</v>
@@ -1694,13 +1739,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1708,13 +1753,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1722,13 +1767,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1736,13 +1781,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" s="4">
         <v>40</v>
@@ -1750,13 +1795,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D50" s="4">
         <v>103</v>
@@ -1764,13 +1809,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D51" s="4">
         <v>103</v>
@@ -1778,13 +1823,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4">
         <v>910</v>
@@ -1792,13 +1837,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1806,13 +1851,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D54" s="4">
         <v>745</v>
@@ -1820,13 +1865,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D55" s="4">
         <v>33</v>
@@ -1834,13 +1879,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D56" s="4">
         <v>32</v>
@@ -1848,13 +1893,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -1862,41 +1907,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1904,13 +1949,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1918,13 +1963,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1932,13 +1977,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D63" s="4">
         <v>211</v>
@@ -1946,27 +1991,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D65" s="4">
         <v>1166</v>
@@ -1974,27 +2019,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>109</v>
+        <v>127</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D67" s="4">
         <v>820</v>
@@ -2002,13 +2047,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D68" s="4">
         <v>819</v>
@@ -2016,13 +2061,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D69" s="4">
         <v>553</v>
@@ -2030,13 +2075,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D70" s="4">
         <v>72</v>
@@ -2044,13 +2089,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D71" s="4">
         <v>86</v>
@@ -2058,13 +2103,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D72" s="4">
         <v>87</v>
@@ -2072,27 +2117,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D74" s="4">
         <v>55</v>
@@ -2100,13 +2145,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D75" s="4">
         <v>54</v>
@@ -2114,13 +2159,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D76" s="4">
         <v>994</v>
@@ -2128,13 +2173,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D77" s="4">
         <v>695</v>
@@ -2142,27 +2187,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2170,27 +2215,27 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2198,13 +2243,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D82" s="4">
         <v>53</v>
@@ -2212,13 +2257,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D83" s="4">
         <v>107</v>
@@ -2226,13 +2271,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D84" s="4">
         <v>747</v>
@@ -2240,13 +2285,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D85" s="4">
         <v>449</v>
@@ -2254,13 +2299,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D86" s="4">
         <v>170</v>
@@ -2268,13 +2313,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D87" s="4">
         <v>163</v>
@@ -2282,13 +2327,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D88" s="4">
         <v>799</v>
@@ -2296,13 +2341,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D89" s="4">
         <v>1127</v>
@@ -2310,13 +2355,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D90" s="4">
         <v>569</v>
@@ -2324,13 +2369,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D91" s="4">
         <v>762</v>
@@ -2338,13 +2383,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2352,13 +2397,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D93" s="4">
         <v>211</v>
@@ -2366,55 +2411,55 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2422,13 +2467,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2441,18 +2486,43 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="7" priority="20">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D50 A53:D98 B51:D52">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D2 A4:D43 A45:D54 A57:D59 A61:D65 A67:D98">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:A52">
+  <conditionalFormatting sqref="A3:D3">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:D44">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A44))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:D56">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A55))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:D60">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B60))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A60))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:D66">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A51))&gt;0</formula>
+      <formula>LEN(TRIM(A66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0B926A-8DDC-43C9-B5DE-8D2957A252A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E07FC8-3D08-4ED8-B241-3F8D84381690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="186">
   <si>
     <t>Complemento</t>
   </si>
@@ -527,24 +527,6 @@
     <t>S020008</t>
   </si>
   <si>
-    <t>MOP PO REFIL - UNICA</t>
-  </si>
-  <si>
-    <t>S010076</t>
-  </si>
-  <si>
-    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010034</t>
-  </si>
-  <si>
-    <t>KIT MOP UMIDO - UNICA</t>
-  </si>
-  <si>
-    <t>S010086</t>
-  </si>
-  <si>
     <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
   </si>
   <si>
@@ -603,6 +585,18 @@
   </si>
   <si>
     <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>MOP - KIT UMIDO</t>
+  </si>
+  <si>
+    <t>S010075</t>
+  </si>
+  <si>
+    <t>MOP - REFIL PO</t>
+  </si>
+  <si>
+    <t>MOP - REFIL UMIDO</t>
   </si>
 </sst>
 </file>
@@ -707,52 +701,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1096,7 +1045,7 @@
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:D66"/>
+      <selection activeCell="A60" sqref="A60:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,13 +1072,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1137,7 +1086,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>150</v>
@@ -1445,7 +1394,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>150</v>
@@ -1459,7 +1408,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>150</v>
@@ -1473,7 +1422,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>150</v>
@@ -1487,7 +1436,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>150</v>
@@ -1543,7 +1492,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>150</v>
@@ -1641,13 +1590,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1711,7 +1660,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>150</v>
@@ -1753,13 +1702,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1767,41 +1716,41 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D49" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50" s="4">
         <v>103</v>
@@ -1809,7 +1758,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>150</v>
@@ -1818,54 +1767,54 @@
         <v>57</v>
       </c>
       <c r="D51" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D52" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D53" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D54" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>150</v>
@@ -1874,26 +1823,26 @@
         <v>62</v>
       </c>
       <c r="D55" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D56" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>150</v>
@@ -1901,13 +1850,13 @@
       <c r="C57" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="4">
-        <v>2</v>
+      <c r="D57" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>150</v>
@@ -1916,63 +1865,63 @@
         <v>64</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>123</v>
+        <v>65</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D61" s="4">
-        <v>1</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D62" s="4">
-        <v>1</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2005,7 +1954,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>150</v>
@@ -2019,7 +1968,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>150</v>
@@ -2383,13 +2332,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2486,43 +2435,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="7" priority="20">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2 A4:D43 A45:D54 A57:D59 A61:D65 A67:D98">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+  <conditionalFormatting sqref="A2:D59 A63:D98">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D3">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:D44">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A44))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:D56">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A55))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:D60">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B60))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A60:D62">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A60))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D66">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E07FC8-3D08-4ED8-B241-3F8D84381690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FA20EF-6399-4F65-A6C6-226C60B78F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="187">
   <si>
     <t>Complemento</t>
   </si>
@@ -227,9 +227,6 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>S010030</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
@@ -452,9 +449,6 @@
     <t>S020118</t>
   </si>
   <si>
-    <t>SACO P/ LIXO C/10UN - 30LT</t>
-  </si>
-  <si>
     <t>S010057</t>
   </si>
   <si>
@@ -575,12 +569,6 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - UNICA</t>
   </si>
   <si>
@@ -597,6 +585,21 @@
   </si>
   <si>
     <t>MOP - REFIL UMIDO</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO C/10UN - 30L</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080024</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.P - TAM.P</t>
   </si>
 </sst>
 </file>
@@ -701,16 +704,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1042,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:D62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1072,13 +1066,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1086,10 +1080,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1103,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1114,30 +1108,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1145,7 +1139,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -1156,10 +1150,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1170,10 +1164,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1187,7 +1181,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1201,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
@@ -1215,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
@@ -1229,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1243,7 +1237,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1254,16 +1248,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,7 +1265,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>19</v>
@@ -1285,7 +1279,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -1296,10 +1290,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1313,7 +1307,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -1327,7 +1321,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1341,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1352,10 +1346,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>27</v>
@@ -1366,10 +1360,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1383,7 +1377,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -1394,13 +1388,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="4">
         <v>1176</v>
@@ -1408,13 +1402,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" s="4">
         <v>1177</v>
@@ -1422,13 +1416,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="4">
         <v>1178</v>
@@ -1436,13 +1430,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" s="4">
         <v>1179</v>
@@ -1453,7 +1447,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
@@ -1464,16 +1458,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,27 +1475,27 @@
         <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,7 +1503,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>37</v>
@@ -1523,7 +1517,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>39</v>
@@ -1537,7 +1531,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>39</v>
@@ -1551,7 +1545,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>39</v>
@@ -1565,7 +1559,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>39</v>
@@ -1576,27 +1570,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1607,7 +1601,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>44</v>
@@ -1621,7 +1615,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>44</v>
@@ -1632,27 +1626,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1660,10 +1654,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>46</v>
@@ -1677,7 +1671,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
@@ -1691,7 +1685,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>50</v>
@@ -1705,7 +1699,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>52</v>
@@ -1719,7 +1713,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
@@ -1733,7 +1727,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>56</v>
@@ -1744,10 +1738,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>57</v>
@@ -1758,10 +1752,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>57</v>
@@ -1775,7 +1769,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
@@ -1789,7 +1783,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>61</v>
@@ -1800,13 +1794,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1814,587 +1808,587 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="D55" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="D56" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>121</v>
+        <v>63</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="D60" s="4">
-        <v>1172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D61" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D62" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="D63" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>126</v>
+        <v>66</v>
+      </c>
+      <c r="D64" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1166</v>
+        <v>124</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D66" s="4">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="D67" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D68" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D69" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D70" s="4">
-        <v>72</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D71" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D72" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>130</v>
+        <v>75</v>
+      </c>
+      <c r="D73" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="4">
-        <v>55</v>
+        <v>75</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D76" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D77" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+      <c r="D78" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>104</v>
+        <v>82</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="4">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D82" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D83" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D84" s="4">
-        <v>747</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D85" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="D86" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D87" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D88" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D89" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D90" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D91" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="D92" s="4">
-        <v>1</v>
+        <v>762</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="D93" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D94" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>103</v>
@@ -2402,51 +2396,60 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D97" s="4">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D98" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D98">
-      <sortCondition ref="A1:A98"/>
+  <autoFilter ref="A1:D99" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D99">
+      <sortCondition ref="A1:A99"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D59 A63:D98">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D99">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:D62">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FA20EF-6399-4F65-A6C6-226C60B78F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F204AE-01A4-4C96-9CF8-C87FE226DF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="185">
   <si>
     <t>Complemento</t>
   </si>
@@ -513,12 +513,6 @@
   </si>
   <si>
     <t>S020048</t>
-  </si>
-  <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
   </si>
   <si>
     <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
@@ -1036,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,13 +1060,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1080,7 +1074,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>148</v>
@@ -1388,7 +1382,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>148</v>
@@ -1402,7 +1396,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>148</v>
@@ -1416,7 +1410,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>148</v>
@@ -1430,7 +1424,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>148</v>
@@ -1486,7 +1480,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>148</v>
@@ -1584,13 +1578,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1654,7 +1648,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>148</v>
@@ -1738,7 +1732,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>148</v>
@@ -1752,7 +1746,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>148</v>
@@ -1794,13 +1788,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1808,13 +1802,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D55" s="4">
         <v>33</v>
@@ -1822,13 +1816,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D56" s="4">
         <v>32</v>
@@ -1878,7 +1872,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>149</v>
@@ -1892,13 +1886,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="4">
         <v>1172</v>
@@ -1906,13 +1900,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="4">
         <v>1173</v>
@@ -1920,13 +1914,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D63" s="4">
         <v>1174</v>
@@ -1962,7 +1956,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>148</v>
@@ -1976,7 +1970,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>148</v>
@@ -2228,7 +2222,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>151</v>
@@ -2340,13 +2334,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2382,64 +2376,50 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>102</v>
+        <v>144</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D99" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D99" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D99">
-      <sortCondition ref="A1:A99"/>
+  <autoFilter ref="A1:D98" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D98">
+      <sortCondition ref="A1:A98"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2447,7 +2427,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D99">
+  <conditionalFormatting sqref="A2:D98">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F204AE-01A4-4C96-9CF8-C87FE226DF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F817A36-2DD2-4431-A23B-710B27066DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -233,9 +233,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -563,9 +560,6 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
@@ -594,6 +588,12 @@
   </si>
   <si>
     <t>LUVA MULTIUSO DE LATEX - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1032,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:XFD96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1060,13 +1069,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1074,10 +1083,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1091,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1102,30 +1111,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -1144,10 +1153,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1158,10 +1167,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1175,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1189,7 +1198,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
@@ -1203,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
@@ -1217,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1231,7 +1240,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1242,16 +1251,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,7 +1268,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>19</v>
@@ -1273,7 +1282,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -1284,10 +1293,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1301,7 +1310,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -1315,7 +1324,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1329,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1340,10 +1349,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>27</v>
@@ -1354,10 +1363,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1371,7 +1380,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -1382,13 +1391,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="4">
         <v>1176</v>
@@ -1396,13 +1405,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="4">
         <v>1177</v>
@@ -1410,13 +1419,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="4">
         <v>1178</v>
@@ -1424,13 +1433,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" s="4">
         <v>1179</v>
@@ -1441,7 +1450,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
@@ -1452,16 +1461,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1469,21 +1478,21 @@
         <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
@@ -1497,7 +1506,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>37</v>
@@ -1511,7 +1520,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>39</v>
@@ -1525,7 +1534,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>39</v>
@@ -1539,7 +1548,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>39</v>
@@ -1553,7 +1562,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>39</v>
@@ -1564,27 +1573,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1595,7 +1604,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>44</v>
@@ -1609,7 +1618,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>44</v>
@@ -1620,27 +1629,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1648,10 +1657,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>46</v>
@@ -1665,7 +1674,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
@@ -1679,7 +1688,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>50</v>
@@ -1693,7 +1702,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>52</v>
@@ -1707,7 +1716,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
@@ -1721,7 +1730,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>56</v>
@@ -1732,10 +1741,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>57</v>
@@ -1746,10 +1755,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>57</v>
@@ -1763,7 +1772,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
@@ -1777,7 +1786,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>61</v>
@@ -1788,13 +1797,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1802,13 +1811,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D55" s="4">
         <v>33</v>
@@ -1816,13 +1825,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D56" s="4">
         <v>32</v>
@@ -1833,7 +1842,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>63</v>
@@ -1844,55 +1853,55 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" s="4">
         <v>1172</v>
@@ -1900,13 +1909,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" s="4">
         <v>1173</v>
@@ -1914,13 +1923,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D63" s="4">
         <v>1174</v>
@@ -1928,13 +1937,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D64" s="4">
         <v>211</v>
@@ -1942,41 +1951,41 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="4">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D67" s="4">
         <v>1167</v>
@@ -1984,13 +1993,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D68" s="4">
         <v>820</v>
@@ -1998,13 +2007,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" s="4">
         <v>819</v>
@@ -2012,13 +2021,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D70" s="4">
         <v>553</v>
@@ -2026,13 +2035,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D71" s="4">
         <v>72</v>
@@ -2040,13 +2049,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D72" s="4">
         <v>86</v>
@@ -2054,13 +2063,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D73" s="4">
         <v>87</v>
@@ -2068,27 +2077,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D75" s="4">
         <v>55</v>
@@ -2096,13 +2105,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" s="4">
         <v>54</v>
@@ -2110,13 +2119,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D77" s="4">
         <v>994</v>
@@ -2124,13 +2133,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D78" s="4">
         <v>695</v>
@@ -2138,27 +2147,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2166,27 +2175,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D81" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2194,13 +2203,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D83" s="4">
         <v>53</v>
@@ -2208,13 +2217,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D84" s="4">
         <v>107</v>
@@ -2222,13 +2231,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D85" s="4">
         <v>437</v>
@@ -2236,13 +2245,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D86" s="4">
         <v>449</v>
@@ -2250,13 +2259,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D87" s="4">
         <v>170</v>
@@ -2264,13 +2273,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D88" s="4">
         <v>163</v>
@@ -2278,13 +2287,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D89" s="4">
         <v>799</v>
@@ -2292,13 +2301,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D90" s="4">
         <v>1127</v>
@@ -2306,13 +2315,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D91" s="4">
         <v>569</v>
@@ -2320,13 +2329,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D92" s="4">
         <v>762</v>
@@ -2334,13 +2343,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2348,13 +2357,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D94" s="4">
         <v>211</v>
@@ -2362,41 +2371,41 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D95" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2404,13 +2413,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2423,13 +2432,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D98">
+  <conditionalFormatting sqref="A2:D59 A61:D98">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:D60">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F817A36-2DD2-4431-A23B-710B27066DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD0A176-01AF-48D8-9427-696D42BA0D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="183">
   <si>
     <t>Complemento</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>S010004</t>
-  </si>
-  <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
   </si>
   <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
@@ -698,16 +692,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1039,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1069,13 +1054,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1083,10 +1068,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1097,128 +1082,128 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>105</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>809</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" s="4">
-        <v>809</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4">
-        <v>1045</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1226,41 +1211,41 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>102</v>
+        <v>17</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,41 +1253,41 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1310,7 +1295,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -1324,181 +1309,181 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D21" s="4">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D24" s="4">
-        <v>103</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D25" s="4">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D26" s="4">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" s="4">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="D28" s="4">
-        <v>1179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>102</v>
+      <c r="D31" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="4">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,13 +1491,13 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>899</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1520,83 +1505,83 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D34" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D35" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D36" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="4">
-        <v>898</v>
+        <v>154</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>102</v>
+        <v>160</v>
+      </c>
+      <c r="D38" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="D39" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,69 +1589,69 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D40" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="4">
-        <v>167</v>
+        <v>115</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>102</v>
+        <v>143</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,7 +1659,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
@@ -1688,13 +1673,13 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D46" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1702,13 +1687,13 @@
         <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1716,24 +1701,24 @@
         <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D49" s="4">
         <v>103</v>
@@ -1741,30 +1726,30 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D50" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D51" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,27 +1757,27 @@
         <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="D53" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1800,10 +1785,10 @@
         <v>179</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1811,44 +1796,44 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D55" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="D56" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="4">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,10 +1841,10 @@
         <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>119</v>
@@ -1867,30 +1852,30 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>121</v>
+        <v>182</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D60" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1898,80 +1883,80 @@
         <v>174</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D62" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="D63" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="4">
-        <v>211</v>
+        <v>121</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>124</v>
+        <v>64</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="D66" s="4">
         <v>1167</v>
@@ -1979,16 +1964,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="D67" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1996,55 +1981,55 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D68" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="D69" s="4">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D70" s="4">
-        <v>553</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D71" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2052,27 +2037,27 @@
         <v>73</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D72" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="4">
-        <v>87</v>
+        <v>72</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2080,111 +2065,111 @@
         <v>127</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>128</v>
+      <c r="D74" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D75" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D76" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D77" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D78" s="4">
-        <v>695</v>
+        <v>130</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>102</v>
+        <v>79</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>102</v>
+        <v>81</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2192,13 +2177,13 @@
         <v>82</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D82" s="4">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2206,55 +2191,55 @@
         <v>84</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D83" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D84" s="4">
-        <v>107</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D85" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="D86" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2262,111 +2247,111 @@
         <v>88</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D87" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D88" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D89" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D90" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D91" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="D92" s="4">
-        <v>762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="D93" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D94" s="4">
-        <v>211</v>
+        <v>138</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2374,76 +2359,57 @@
         <v>139</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>101</v>
+      <c r="D96" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D98" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D98" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D98">
-      <sortCondition ref="A1:A98"/>
+  <autoFilter ref="A1:D97" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
+      <sortCondition ref="A1:A97"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="1" priority="25">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D59 A61:D98">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D97">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:D60">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD0A176-01AF-48D8-9427-696D42BA0D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AED02EB-F5DF-457A-9D90-AE30B2DEF8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -545,9 +545,6 @@
     <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
   </si>
   <si>
-    <t>LIMPADOR MULTIUSO - CIF</t>
-  </si>
-  <si>
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
   <si>
@@ -588,6 +585,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -692,7 +692,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1026,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1077,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>145</v>
@@ -1628,7 +1637,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>145</v>
@@ -1726,7 +1735,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>145</v>
@@ -1735,7 +1744,7 @@
         <v>55</v>
       </c>
       <c r="D50" s="4">
-        <v>910</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,13 +1777,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1782,13 +1791,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1796,13 +1805,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1852,13 +1861,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="4">
         <v>1181</v>
@@ -1866,13 +1875,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="D60" s="4">
         <v>1172</v>
@@ -1880,13 +1889,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61" s="4">
         <v>1173</v>
@@ -1894,13 +1903,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D62" s="4">
         <v>1174</v>
@@ -1950,7 +1959,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>145</v>
@@ -2202,7 +2211,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>148</v>
@@ -2403,13 +2412,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="25">
+    <cfRule type="expression" dxfId="2" priority="26">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D97">
+  <conditionalFormatting sqref="A2:D49 A51:D97">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:D50">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AED02EB-F5DF-457A-9D90-AE30B2DEF8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E77EF7-9C9B-43A7-AB2F-13DD325B9FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="180">
   <si>
     <t>Complemento</t>
   </si>
@@ -260,9 +260,6 @@
     <t>S020025</t>
   </si>
   <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
     <t>S200035</t>
   </si>
   <si>
@@ -414,12 +411,6 @@
   </si>
   <si>
     <t>PAPEL TOALHA INTERFOLHADO - 1000 FLS</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
-  </si>
-  <si>
-    <t>88</t>
   </si>
   <si>
     <t>PILHA - AA</t>
@@ -692,16 +683,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1033,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:D50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1063,13 +1045,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1077,10 +1059,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1091,30 +1073,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1133,10 +1115,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1147,10 +1129,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1164,7 +1146,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1178,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1192,7 +1174,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1206,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1220,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1231,16 +1213,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1248,7 +1230,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -1262,7 +1244,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
@@ -1273,10 +1255,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1290,7 +1272,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1304,7 +1286,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -1318,7 +1300,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1329,10 +1311,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1343,10 +1325,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>26</v>
@@ -1360,7 +1342,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1371,13 +1353,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="4">
         <v>1176</v>
@@ -1385,13 +1367,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="4">
         <v>1177</v>
@@ -1399,13 +1381,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="4">
         <v>1178</v>
@@ -1413,13 +1395,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="4">
         <v>1179</v>
@@ -1430,7 +1412,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
@@ -1441,16 +1423,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1458,21 +1440,21 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1486,7 +1468,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
@@ -1500,7 +1482,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>37</v>
@@ -1514,7 +1496,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -1528,7 +1510,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>37</v>
@@ -1542,7 +1524,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>37</v>
@@ -1553,27 +1535,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D38" s="4">
         <v>750</v>
@@ -1584,7 +1566,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1598,7 +1580,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>42</v>
@@ -1609,27 +1591,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1637,10 +1619,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>44</v>
@@ -1654,7 +1636,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>46</v>
@@ -1668,7 +1650,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
@@ -1682,7 +1664,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>50</v>
@@ -1696,7 +1678,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>52</v>
@@ -1710,7 +1692,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
@@ -1721,10 +1703,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>55</v>
@@ -1735,10 +1717,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>55</v>
@@ -1752,7 +1734,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>57</v>
@@ -1766,7 +1748,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
@@ -1777,13 +1759,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1791,13 +1773,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1805,13 +1787,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1822,7 +1804,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>61</v>
@@ -1833,41 +1815,41 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D59" s="4">
         <v>1181</v>
@@ -1875,13 +1857,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D60" s="4">
         <v>1172</v>
@@ -1889,13 +1871,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D61" s="4">
         <v>1173</v>
@@ -1903,13 +1885,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D62" s="4">
         <v>1174</v>
@@ -1920,7 +1902,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>63</v>
@@ -1931,24 +1913,24 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>64</v>
@@ -1959,13 +1941,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D66" s="4">
         <v>1167</v>
@@ -1976,7 +1958,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>66</v>
@@ -1990,7 +1972,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>66</v>
@@ -2004,7 +1986,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>69</v>
@@ -2015,10 +1997,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>70</v>
@@ -2032,7 +2014,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>72</v>
@@ -2043,16 +2025,16 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D72" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2060,94 +2042,94 @@
         <v>125</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>126</v>
+        <v>73</v>
+      </c>
+      <c r="D73" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D74" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D75" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76" s="4">
-        <v>994</v>
+        <v>127</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D77" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2155,156 +2137,156 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
+      </c>
+      <c r="D80" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D81" s="4">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="D82" s="4">
-        <v>53</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="D83" s="4">
-        <v>107</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="D84" s="4">
-        <v>437</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="D85" s="4">
-        <v>449</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D86" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D87" s="4">
-        <v>163</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D88" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D89" s="4">
-        <v>1127</v>
+        <v>762</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="D90" s="4">
-        <v>569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2312,118 +2294,85 @@
         <v>92</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D91" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D92" s="4">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D93" s="4">
-        <v>211</v>
+        <v>137</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>100</v>
+      <c r="D94" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D96" s="4">
+        <v>95</v>
+      </c>
+      <c r="D95" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D97" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D97" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
-      <sortCondition ref="A1:A97"/>
+  <autoFilter ref="A1:D95" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
+      <sortCondition ref="A1:A95"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="1" priority="26">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D49 A51:D97">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D95">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:D50">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E77EF7-9C9B-43A7-AB2F-13DD325B9FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2CDE4C-87BE-402A-A92C-66AF907DFABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="179">
   <si>
     <t>Complemento</t>
   </si>
@@ -245,9 +245,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -473,9 +470,6 @@
     <t>CX</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PC</t>
   </si>
   <si>
@@ -579,6 +573,9 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -683,7 +680,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1018,7 +1024,7 @@
   <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD72"/>
+      <selection activeCell="A69" sqref="A69:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1045,13 +1051,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1059,10 +1065,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1073,30 +1079,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1104,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1115,10 +1121,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1129,10 +1135,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1146,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1160,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1174,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1188,7 +1194,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1202,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1213,16 +1219,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,7 +1236,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -1244,7 +1250,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
@@ -1255,10 +1261,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1272,7 +1278,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1286,7 +1292,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -1300,7 +1306,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1311,10 +1317,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1325,10 +1331,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>26</v>
@@ -1342,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1353,13 +1359,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="4">
         <v>1176</v>
@@ -1367,13 +1373,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="4">
         <v>1177</v>
@@ -1381,13 +1387,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="4">
         <v>1178</v>
@@ -1395,13 +1401,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4">
         <v>1179</v>
@@ -1412,7 +1418,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
@@ -1423,16 +1429,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1440,21 +1446,21 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1468,7 +1474,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
@@ -1482,7 +1488,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>37</v>
@@ -1496,7 +1502,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -1510,7 +1516,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>37</v>
@@ -1524,7 +1530,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>37</v>
@@ -1535,27 +1541,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D38" s="4">
         <v>750</v>
@@ -1566,7 +1572,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1580,7 +1586,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>42</v>
@@ -1591,27 +1597,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1619,10 +1625,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>44</v>
@@ -1636,7 +1642,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>46</v>
@@ -1650,7 +1656,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
@@ -1664,7 +1670,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>50</v>
@@ -1678,7 +1684,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>52</v>
@@ -1692,7 +1698,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
@@ -1703,10 +1709,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>55</v>
@@ -1717,10 +1723,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>55</v>
@@ -1734,7 +1740,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>57</v>
@@ -1748,7 +1754,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
@@ -1759,13 +1765,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1773,13 +1779,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1787,13 +1793,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1804,7 +1810,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>61</v>
@@ -1815,41 +1821,41 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="4">
         <v>1181</v>
@@ -1857,13 +1863,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D60" s="4">
         <v>1172</v>
@@ -1871,13 +1877,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D61" s="4">
         <v>1173</v>
@@ -1885,13 +1891,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D62" s="4">
         <v>1174</v>
@@ -1902,7 +1908,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>63</v>
@@ -1913,24 +1919,24 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>64</v>
@@ -1941,13 +1947,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66" s="4">
         <v>1167</v>
@@ -1958,7 +1964,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>66</v>
@@ -1972,7 +1978,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>66</v>
@@ -1983,27 +1989,27 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D69" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D70" s="4">
         <v>72</v>
@@ -2011,13 +2017,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D71" s="4">
         <v>86</v>
@@ -2025,13 +2031,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D72" s="4">
         <v>55</v>
@@ -2039,13 +2045,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D73" s="4">
         <v>54</v>
@@ -2053,13 +2059,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" s="4">
         <v>994</v>
@@ -2067,13 +2073,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D75" s="4">
         <v>695</v>
@@ -2081,27 +2087,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="D76" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -2109,27 +2115,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2137,13 +2143,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D80" s="4">
         <v>53</v>
@@ -2151,13 +2157,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D81" s="4">
         <v>107</v>
@@ -2165,13 +2171,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D82" s="4">
         <v>437</v>
@@ -2179,13 +2185,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D83" s="4">
         <v>449</v>
@@ -2193,13 +2199,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D84" s="4">
         <v>170</v>
@@ -2207,13 +2213,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" s="4">
         <v>163</v>
@@ -2221,13 +2227,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86" s="4">
         <v>799</v>
@@ -2235,13 +2241,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D87" s="4">
         <v>1127</v>
@@ -2249,13 +2255,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D88" s="4">
         <v>569</v>
@@ -2263,13 +2269,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D89" s="4">
         <v>762</v>
@@ -2277,13 +2283,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2291,13 +2297,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D91" s="4">
         <v>211</v>
@@ -2305,41 +2311,41 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D92" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D93" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2347,13 +2353,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2366,13 +2372,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="26">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D95">
+  <conditionalFormatting sqref="A2:D68 A70:D95">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:D69">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A69))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2CDE4C-87BE-402A-A92C-66AF907DFABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE52775-160E-4F22-94A5-105FE8F7B390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -182,9 +182,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -576,6 +573,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 1000UN</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:D69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1051,13 +1051,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1079,30 +1079,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1121,10 +1121,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1152,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1166,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1180,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1194,7 +1194,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1208,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1219,16 +1219,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -1250,7 +1250,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1278,7 +1278,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1292,7 +1292,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -1306,7 +1306,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1331,10 +1331,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>26</v>
@@ -1348,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1359,13 +1359,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="4">
         <v>1176</v>
@@ -1373,13 +1373,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="4">
         <v>1177</v>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="4">
         <v>1178</v>
@@ -1401,13 +1401,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="4">
         <v>1179</v>
@@ -1418,7 +1418,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
@@ -1429,16 +1429,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,21 +1446,21 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1474,7 +1474,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
@@ -1488,7 +1488,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>37</v>
@@ -1502,7 +1502,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -1516,7 +1516,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>37</v>
@@ -1530,7 +1530,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>37</v>
@@ -1541,27 +1541,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D38" s="4">
         <v>750</v>
@@ -1572,7 +1572,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1586,7 +1586,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>42</v>
@@ -1597,27 +1597,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1625,10 +1625,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>44</v>
@@ -1642,7 +1642,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>46</v>
@@ -1653,27 +1653,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D45" s="4">
-        <v>80</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D47" s="4">
         <v>40</v>
@@ -1695,13 +1695,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1709,13 +1709,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="4">
         <v>103</v>
@@ -1723,13 +1723,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="4">
         <v>1166</v>
@@ -1737,13 +1737,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1751,13 +1751,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D52" s="4">
         <v>745</v>
@@ -1765,13 +1765,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1779,13 +1779,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D56" s="4">
         <v>2</v>
@@ -1821,41 +1821,41 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D59" s="4">
         <v>1181</v>
@@ -1863,13 +1863,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="D60" s="4">
         <v>1172</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D61" s="4">
         <v>1173</v>
@@ -1891,13 +1891,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D62" s="4">
         <v>1174</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D63" s="4">
         <v>211</v>
@@ -1919,27 +1919,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="4">
         <v>1167</v>
@@ -1947,13 +1947,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D66" s="4">
         <v>1167</v>
@@ -1961,13 +1961,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D67" s="4">
         <v>820</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="4">
         <v>819</v>
@@ -1989,13 +1989,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="4">
         <v>1394</v>
@@ -2003,13 +2003,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" s="4">
         <v>72</v>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D71" s="4">
         <v>86</v>
@@ -2031,13 +2031,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D72" s="4">
         <v>55</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="4">
         <v>54</v>
@@ -2059,13 +2059,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D74" s="4">
         <v>994</v>
@@ -2073,13 +2073,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D75" s="4">
         <v>695</v>
@@ -2087,27 +2087,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D76" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -2115,27 +2115,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2143,13 +2143,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D80" s="4">
         <v>53</v>
@@ -2157,13 +2157,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D81" s="4">
         <v>107</v>
@@ -2171,13 +2171,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D82" s="4">
         <v>437</v>
@@ -2185,13 +2185,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D83" s="4">
         <v>449</v>
@@ -2199,13 +2199,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D84" s="4">
         <v>170</v>
@@ -2213,13 +2213,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D85" s="4">
         <v>163</v>
@@ -2227,13 +2227,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86" s="4">
         <v>799</v>
@@ -2241,13 +2241,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D87" s="4">
         <v>1127</v>
@@ -2255,13 +2255,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D88" s="4">
         <v>569</v>
@@ -2269,13 +2269,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="4">
         <v>762</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2297,13 +2297,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D91" s="4">
         <v>211</v>
@@ -2311,41 +2311,41 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D92" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="D93" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2372,18 +2372,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D68 A70:D95">
+  <conditionalFormatting sqref="A2:D44 A46:D95">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:D69">
+  <conditionalFormatting sqref="A45:D45">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A69))&gt;0</formula>
+      <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE52775-160E-4F22-94A5-105FE8F7B390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621594BA-4FB6-41CF-A82B-8E05D4706061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="173">
   <si>
     <t>Complemento</t>
   </si>
@@ -83,9 +83,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -98,15 +95,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -128,24 +119,15 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -185,9 +167,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -206,9 +185,6 @@
     <t>S010027</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -266,15 +242,9 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
-    <t>RODO - UNICA</t>
-  </si>
-  <si>
     <t>S110029</t>
   </si>
   <si>
@@ -317,9 +287,6 @@
     <t>S040046</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -329,33 +296,18 @@
     <t>S020071</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>BALDE - 10L - 10L</t>
   </si>
   <si>
     <t>S110003</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>BOBINA P/ PONTO ELETRONICO - 57X300 (GRANDE)</t>
   </si>
   <si>
     <t>BOBINA P/ PONTO ELETRONICO - 57X40 (PEQUENA)</t>
   </si>
   <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 150ML - 150ML</t>
   </si>
   <si>
@@ -371,36 +323,21 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - VERMELHO - VERMELHO</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>PA PLASTICA P/ LIXO - CABO LONGO</t>
   </si>
   <si>
     <t>S110020</t>
   </si>
   <si>
-    <t>591</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -413,15 +350,9 @@
     <t>PILHA - AAA</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
@@ -437,9 +368,6 @@
     <t>SACOLA PLASTICA - 25X30</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
@@ -452,9 +380,6 @@
     <t>S110036</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
     <t>S050008</t>
   </si>
   <si>
@@ -482,9 +407,6 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
@@ -494,9 +416,6 @@
     <t>S010002</t>
   </si>
   <si>
-    <t>TAPETE - UNICA</t>
-  </si>
-  <si>
     <t>S110059</t>
   </si>
   <si>
@@ -576,6 +495,69 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 1000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>RODO - C/ CABO 40CM</t>
+  </si>
+  <si>
+    <t>TAPETE - 1,20x0,80</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -658,7 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -675,21 +657,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1023,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:D45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1051,13 +1027,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1065,10 +1041,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1079,30 +1055,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
+      </c>
+      <c r="D5" s="6">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1121,10 +1097,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1135,10 +1111,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1152,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1166,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1180,7 +1156,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1194,7 +1170,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1205,41 +1181,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>97</v>
+        <v>154</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1184</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -1247,13 +1223,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -1261,13 +1237,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
@@ -1275,41 +1251,41 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4">
         <v>52</v>
@@ -1317,13 +1293,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4">
         <v>109</v>
@@ -1331,13 +1307,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4">
         <v>105</v>
@@ -1345,13 +1321,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4">
         <v>103</v>
@@ -1359,13 +1335,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D24" s="4">
         <v>1176</v>
@@ -1373,13 +1349,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D25" s="4">
         <v>1177</v>
@@ -1387,13 +1363,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D26" s="4">
         <v>1178</v>
@@ -1401,13 +1377,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D27" s="4">
         <v>1179</v>
@@ -1415,55 +1391,55 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+      <c r="D29" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>97</v>
+        <v>27</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1454</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D31" s="4">
         <v>1162</v>
@@ -1471,27 +1447,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D33" s="4">
         <v>899</v>
@@ -1499,13 +1475,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D34" s="4">
         <v>896</v>
@@ -1513,13 +1489,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D35" s="4">
         <v>900</v>
@@ -1527,13 +1503,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D36" s="4">
         <v>898</v>
@@ -1541,27 +1517,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>97</v>
+        <v>122</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1456</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D38" s="4">
         <v>750</v>
@@ -1569,13 +1545,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D39" s="4">
         <v>166</v>
@@ -1583,13 +1559,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D40" s="4">
         <v>167</v>
@@ -1597,41 +1573,41 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="D41" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D43" s="4">
         <v>448</v>
@@ -1639,13 +1615,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D44" s="4">
         <v>80</v>
@@ -1653,13 +1629,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D45" s="4">
         <v>1395</v>
@@ -1667,27 +1643,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D47" s="4">
         <v>40</v>
@@ -1695,13 +1671,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1709,13 +1685,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D49" s="4">
         <v>103</v>
@@ -1723,13 +1699,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D50" s="4">
         <v>1166</v>
@@ -1737,27 +1713,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D52" s="4">
         <v>745</v>
@@ -1765,13 +1741,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1779,13 +1755,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1793,13 +1769,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1807,13 +1783,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D56" s="4">
         <v>2</v>
@@ -1821,41 +1797,41 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>114</v>
+        <v>52</v>
+      </c>
+      <c r="D57" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>116</v>
+        <v>52</v>
+      </c>
+      <c r="D58" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="D59" s="4">
         <v>1181</v>
@@ -1863,13 +1839,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D60" s="4">
         <v>1172</v>
@@ -1877,13 +1853,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D61" s="4">
         <v>1173</v>
@@ -1891,13 +1867,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D62" s="4">
         <v>1174</v>
@@ -1905,13 +1881,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D63" s="4">
         <v>211</v>
@@ -1919,27 +1895,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>119</v>
+        <v>98</v>
+      </c>
+      <c r="D64" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D65" s="4">
         <v>1167</v>
@@ -1947,13 +1923,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D66" s="4">
         <v>1167</v>
@@ -1961,13 +1937,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D67" s="4">
         <v>820</v>
@@ -1975,13 +1951,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D68" s="4">
         <v>819</v>
@@ -1989,13 +1965,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D69" s="4">
         <v>1394</v>
@@ -2003,13 +1979,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D70" s="4">
         <v>72</v>
@@ -2017,13 +1993,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D71" s="4">
         <v>86</v>
@@ -2031,13 +2007,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D72" s="4">
         <v>55</v>
@@ -2045,13 +2021,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D73" s="4">
         <v>54</v>
@@ -2059,13 +2035,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D74" s="4">
         <v>994</v>
@@ -2073,13 +2049,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D75" s="4">
         <v>695</v>
@@ -2087,69 +2063,69 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+      <c r="D76" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D77" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D79" s="4">
-        <v>1</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D80" s="4">
         <v>53</v>
@@ -2157,13 +2133,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D81" s="4">
         <v>107</v>
@@ -2171,13 +2147,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D82" s="4">
         <v>437</v>
@@ -2185,13 +2161,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D83" s="4">
         <v>449</v>
@@ -2199,13 +2175,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D84" s="4">
         <v>170</v>
@@ -2213,13 +2189,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D85" s="4">
         <v>163</v>
@@ -2227,13 +2203,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D86" s="4">
         <v>799</v>
@@ -2241,13 +2217,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D87" s="4">
         <v>1127</v>
@@ -2255,13 +2231,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D88" s="4">
         <v>569</v>
@@ -2269,13 +2245,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D89" s="4">
         <v>762</v>
@@ -2283,27 +2259,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D90" s="4">
-        <v>1</v>
+        <v>878</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D91" s="4">
         <v>211</v>
@@ -2311,79 +2287,69 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="D92" s="6">
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>96</v>
+        <v>111</v>
+      </c>
+      <c r="D93" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D94" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D95" s="4">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D95" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
-      <sortCondition ref="A1:A95"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="1" priority="28">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D44 A46:D95">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D95">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:D45">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621594BA-4FB6-41CF-A82B-8E05D4706061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2AF4A6-D196-439D-BE94-E84DCD609A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="172">
   <si>
     <t>Complemento</t>
   </si>
@@ -486,9 +486,6 @@
   </si>
   <si>
     <t>S080026</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
@@ -997,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1178,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>115</v>
@@ -1195,13 +1192,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D14" s="6">
         <v>1184</v>
@@ -1251,7 +1248,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>116</v>
@@ -1260,12 +1257,12 @@
         <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>116</v>
@@ -1391,7 +1388,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>115</v>
@@ -1419,7 +1416,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>115</v>
@@ -1447,7 +1444,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>115</v>
@@ -1517,7 +1514,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>115</v>
@@ -1573,7 +1570,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>115</v>
@@ -1587,7 +1584,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>115</v>
@@ -1629,7 +1626,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>116</v>
@@ -1643,7 +1640,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>115</v>
@@ -1699,49 +1696,49 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D50" s="4">
-        <v>1166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D51" s="4">
-        <v>70</v>
+        <v>745</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="D52" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>115</v>
@@ -1755,7 +1752,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>115</v>
@@ -1764,26 +1761,26 @@
         <v>144</v>
       </c>
       <c r="D54" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="D55" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>115</v>
@@ -1791,13 +1788,13 @@
       <c r="C56" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="4">
-        <v>2</v>
+      <c r="D56" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>115</v>
@@ -1806,40 +1803,40 @@
         <v>52</v>
       </c>
       <c r="D57" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="6">
-        <v>4</v>
+        <v>148</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D59" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>115</v>
@@ -1848,12 +1845,12 @@
         <v>139</v>
       </c>
       <c r="D60" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>115</v>
@@ -1862,60 +1859,60 @@
         <v>139</v>
       </c>
       <c r="D61" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="D62" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="4">
-        <v>211</v>
+        <v>98</v>
+      </c>
+      <c r="D63" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" s="6">
-        <v>591</v>
+        <v>55</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="D65" s="4">
         <v>1167</v>
@@ -1923,21 +1920,21 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="D66" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>117</v>
@@ -1946,68 +1943,68 @@
         <v>57</v>
       </c>
       <c r="D67" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D68" s="4">
-        <v>819</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D69" s="4">
-        <v>1394</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D70" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D71" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>115</v>
@@ -2016,26 +2013,26 @@
         <v>63</v>
       </c>
       <c r="D72" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D73" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>115</v>
@@ -2044,21 +2041,21 @@
         <v>65</v>
       </c>
       <c r="D74" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="4">
-        <v>695</v>
+        <v>103</v>
+      </c>
+      <c r="D75" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,10 +2066,10 @@
         <v>115</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="6">
-        <v>1457</v>
+        <v>67</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,10 +2080,10 @@
         <v>115</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1182</v>
+        <v>104</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,99 +2094,99 @@
         <v>115</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" s="6">
-        <v>1030</v>
+        <v>68</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1468</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D79" s="4">
-        <v>1468</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D80" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D81" s="4">
-        <v>107</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D82" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D83" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D84" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>115</v>
@@ -2198,26 +2195,26 @@
         <v>74</v>
       </c>
       <c r="D85" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D86" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>119</v>
@@ -2226,12 +2223,12 @@
         <v>77</v>
       </c>
       <c r="D87" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>119</v>
@@ -2240,104 +2237,90 @@
         <v>77</v>
       </c>
       <c r="D88" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D89" s="4">
-        <v>762</v>
+        <v>878</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D90" s="4">
-        <v>878</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D91" s="4">
-        <v>211</v>
+        <v>109</v>
+      </c>
+      <c r="D91" s="6">
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D92" s="6">
-        <v>202</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D93" s="6">
-        <v>2</v>
+        <v>112</v>
+      </c>
+      <c r="D93" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D94" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D95" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2347,7 +2330,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D95">
+  <conditionalFormatting sqref="A2:D94">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2AF4A6-D196-439D-BE94-E84DCD609A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8406E972-3B03-487A-A576-BFB09FF4FCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1341,7 @@
         <v>91</v>
       </c>
       <c r="D24" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
         <v>91</v>
       </c>
       <c r="D25" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>91</v>
       </c>
       <c r="D27" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8406E972-3B03-487A-A576-BFB09FF4FCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5164360-54F7-42CE-8220-ACFE7BDA1D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="174">
   <si>
     <t>Complemento</t>
   </si>
@@ -555,6 +555,12 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA - 200G - 200G</t>
+  </si>
+  <si>
+    <t>S010046</t>
   </si>
 </sst>
 </file>
@@ -994,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,91 +2108,91 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="D79" s="4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D80" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D81" s="4">
-        <v>437</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D82" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D83" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D84" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>115</v>
@@ -2195,26 +2201,26 @@
         <v>74</v>
       </c>
       <c r="D85" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D86" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>119</v>
@@ -2223,12 +2229,12 @@
         <v>77</v>
       </c>
       <c r="D87" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>119</v>
@@ -2237,90 +2243,104 @@
         <v>77</v>
       </c>
       <c r="D88" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="D89" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D90" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D91" s="6">
-        <v>202</v>
+        <v>81</v>
+      </c>
+      <c r="D91" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D92" s="6">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" s="4">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="D93" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C94" s="4" t="s">
+      <c r="B95" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D95" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2330,7 +2350,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D94">
+  <conditionalFormatting sqref="A2:D95">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5164360-54F7-42CE-8220-ACFE7BDA1D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC085D19-25B8-4543-B7DB-1AA842D2B538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="176">
   <si>
     <t>Complemento</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>S010046</t>
+  </si>
+  <si>
+    <t>ESCOVA DE NYLON - VASO SANITARIO</t>
+  </si>
+  <si>
+    <t>S110017</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,49 +1442,49 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1162</v>
+        <v>175</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1449</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="4">
-        <v>1455</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D33" s="4">
-        <v>899</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>115</v>
@@ -1487,12 +1493,12 @@
         <v>31</v>
       </c>
       <c r="D34" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -1501,12 +1507,12 @@
         <v>31</v>
       </c>
       <c r="D35" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>115</v>
@@ -1515,54 +1521,54 @@
         <v>31</v>
       </c>
       <c r="D36" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1456</v>
+        <v>31</v>
+      </c>
+      <c r="D37" s="4">
+        <v>898</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="4">
-        <v>750</v>
+        <v>122</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1456</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="D39" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>115</v>
@@ -1571,130 +1577,130 @@
         <v>36</v>
       </c>
       <c r="D40" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="6">
-        <v>272</v>
+        <v>36</v>
+      </c>
+      <c r="D41" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1157</v>
+        <v>94</v>
+      </c>
+      <c r="D42" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D43" s="4">
-        <v>448</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D44" s="4">
-        <v>80</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45" s="4">
-        <v>1395</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="4">
-        <v>1416</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D47" s="4">
-        <v>40</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D48" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="4">
         <v>103</v>
@@ -1702,49 +1708,49 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="4">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="D52" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>115</v>
@@ -1758,7 +1764,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>115</v>
@@ -1767,26 +1773,26 @@
         <v>144</v>
       </c>
       <c r="D54" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="D55" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>115</v>
@@ -1794,13 +1800,13 @@
       <c r="C56" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="6">
-        <v>3</v>
+      <c r="D56" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>115</v>
@@ -1809,40 +1815,40 @@
         <v>52</v>
       </c>
       <c r="D57" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1181</v>
+        <v>52</v>
+      </c>
+      <c r="D58" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D59" s="4">
-        <v>1172</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>115</v>
@@ -1851,12 +1857,12 @@
         <v>139</v>
       </c>
       <c r="D60" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>115</v>
@@ -1865,60 +1871,60 @@
         <v>139</v>
       </c>
       <c r="D61" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="D62" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" s="6">
-        <v>591</v>
+        <v>54</v>
+      </c>
+      <c r="D63" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1167</v>
+        <v>98</v>
+      </c>
+      <c r="D64" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D65" s="4">
         <v>1167</v>
@@ -1926,21 +1932,21 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="D66" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>117</v>
@@ -1949,68 +1955,68 @@
         <v>57</v>
       </c>
       <c r="D67" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D68" s="4">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D69" s="4">
-        <v>72</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D70" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D71" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>115</v>
@@ -2019,26 +2025,26 @@
         <v>63</v>
       </c>
       <c r="D72" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D73" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>115</v>
@@ -2047,166 +2053,166 @@
         <v>65</v>
       </c>
       <c r="D74" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D75" s="6">
-        <v>1457</v>
+        <v>65</v>
+      </c>
+      <c r="D75" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1182</v>
+        <v>103</v>
+      </c>
+      <c r="D76" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" s="6">
-        <v>1030</v>
+        <v>67</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1468</v>
+        <v>104</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="D79" s="4">
-        <v>51</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="D80" s="4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D81" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D82" s="4">
-        <v>437</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D83" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D84" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>115</v>
@@ -2215,26 +2221,26 @@
         <v>74</v>
       </c>
       <c r="D86" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D87" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>119</v>
@@ -2243,12 +2249,12 @@
         <v>77</v>
       </c>
       <c r="D88" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>119</v>
@@ -2257,90 +2263,104 @@
         <v>77</v>
       </c>
       <c r="D89" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="D90" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D91" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D92" s="6">
-        <v>202</v>
+        <v>81</v>
+      </c>
+      <c r="D92" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D93" s="6">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D94" s="4">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="D94" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="B96" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D96" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2350,7 +2370,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D95">
+  <conditionalFormatting sqref="A2:D96">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC085D19-25B8-4543-B7DB-1AA842D2B538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE6D31E-70F0-4A70-A7A6-3AAA49260FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -527,9 +527,6 @@
     <t>FITA DUPLA FACE - 19mm x 3m</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
-  </si>
-  <si>
     <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>S110017</t>
+  </si>
+  <si>
+    <t>FITILHO EMFESTA - 5MMX50M</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,13 +1442,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D31" s="6">
         <v>1449</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>115</v>
@@ -1619,7 +1619,7 @@
         <v>113</v>
       </c>
       <c r="D43" s="4">
-        <v>1157</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>115</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>115</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>115</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>115</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>115</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>115</v>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="D80" s="4">
         <v>51</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>115</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>115</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>115</v>

--- a/pages/MA_ssoservi_sservico_ssala.xlsx
+++ b/pages/MA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE6D31E-70F0-4A70-A7A6-3AAA49260FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF74673-4E7D-460F-A729-9E96B492E5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="178">
   <si>
     <t>Complemento</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>FITILHO EMFESTA - 5MMX50M</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -1006,11 +1012,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1400,30 +1404,30 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1436</v>
+        <v>93</v>
+      </c>
+      <c r="D28" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="D29" s="6">
-        <v>12</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1442,49 +1446,49 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1449</v>
+        <v>28</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D33" s="4">
-        <v>1455</v>
+        <v>899</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>115</v>
@@ -1493,12 +1497,12 @@
         <v>31</v>
       </c>
       <c r="D34" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -1507,12 +1511,12 @@
         <v>31</v>
       </c>
       <c r="D35" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>115</v>
@@ -1521,54 +1525,54 @@
         <v>31</v>
       </c>
       <c r="D36" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="4">
-        <v>898</v>
+        <v>122</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1456</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1456</v>
+        <v>127</v>
+      </c>
+      <c r="D38" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="D39" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>115</v>
@@ -1577,91 +1581,91 @@
         <v>36</v>
       </c>
       <c r="D40" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="4">
-        <v>167</v>
+        <v>94</v>
+      </c>
+      <c r="D41" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="6">
-        <v>272</v>
+        <v>113</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1469</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D43" s="4">
-        <v>1469</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D44" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D45" s="4">
-        <v>80</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="4">
         <v>116</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1395</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2240,21 +2244,21 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D88" s="4">
-        <v>1127</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>119</v>
@@ -2263,12 +2267,12 @@
         <v>77</v>
       </c>
       <c r="D89" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>119</v>
@@ -2277,77 +2281,77 @@
         <v>77</v>
       </c>
       <c r="D90" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="D91" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D92" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D93" s="6">
-        <v>202</v>
+        <v>81</v>
+      </c>
+      <c r="D93" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D94" s="6">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" s="4">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="D95" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,13 +2368,32 @@
         <v>1458</v>
       </c>
     </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" s="4">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D97" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
+      <sortCondition ref="A1:A97"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="expression" dxfId="1" priority="28">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D96">
+  <conditionalFormatting sqref="A2:D97">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
